--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C2C2EBF7-1C93-4D13-95A9-9C871881B499}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB78B47-99F8-48F0-89CC-3C9C3FFF3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
+    <workbookView xWindow="38280" yWindow="7815" windowWidth="29040" windowHeight="15840" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Título</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Contactar al cliente para actualizar el estado del proyecto.</t>
   </si>
   <si>
-    <t>10/09/2024</t>
-  </si>
-  <si>
     <t>1</t>
   </si>
   <si>
@@ -71,18 +68,12 @@
     <t>Revisar planilla de proveedores y pagar.</t>
   </si>
   <si>
-    <t>19/09/2024</t>
-  </si>
-  <si>
     <t>Terminar obligatorio</t>
   </si>
   <si>
     <t>Terminar el obligatorio 2 de DA.</t>
   </si>
   <si>
-    <t>20/11/2024</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -90,28 +81,19 @@
   </si>
   <si>
     <t>Comprar mesa para la sala de espera.</t>
-  </si>
-  <si>
-    <t>24/12/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFD0D0D0"/>
-      <name val="JetBrains Mono"/>
-      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,9 +118,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -476,13 +456,13 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -498,69 +478,69 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1">
+        <v>45910</v>
+      </c>
+      <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>45919</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
+      <c r="C4" s="1">
+        <v>45981</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="1">
+        <v>46015</v>
+      </c>
+      <c r="D5" t="s">
         <v>12</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AB78B47-99F8-48F0-89CC-3C9C3FFF3B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D752F69-95E9-409E-A6A5-3FC6B8D8D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="7815" windowWidth="29040" windowHeight="15840" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
@@ -87,13 +87,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFD0D0D0"/>
+      <name val="JetBrains Mono"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -118,7 +124,9 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,12 +464,15 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <cols>
+    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -478,7 +489,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -495,7 +506,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -512,7 +523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -529,7 +540,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>13</v>
       </c>

--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D752F69-95E9-409E-A6A5-3FC6B8D8D75B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAD2A4-4CFD-4318-A9A5-73F8DBA2B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7815" windowWidth="29040" windowHeight="15840" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
   <si>
     <t>Título</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t>Comprar mesa para la sala de espera.</t>
+  </si>
+  <si>
+    <t>Esfuerzo Estimado</t>
   </si>
 </sst>
 </file>
@@ -122,9 +125,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -461,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1772EDF-2630-45B4-9308-4A381DD12DE9}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -472,7 +478,7 @@
     <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,11 +491,14 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:6">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -502,11 +511,14 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -519,11 +531,14 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:6">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -536,11 +551,14 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:6">
       <c r="A5" t="s">
         <v>13</v>
       </c>
@@ -552,6 +570,9 @@
       </c>
       <c r="D5" t="s">
         <v>12</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flopa\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAD2A4-4CFD-4318-A9A5-73F8DBA2B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413EBDCF-72DC-4F1A-8A39-3D6763D40097}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Título</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Contactar al cliente para actualizar el estado del proyecto.</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>Pagar proveedores</t>
   </si>
   <si>
@@ -72,9 +69,6 @@
   </si>
   <si>
     <t>Terminar el obligatorio 2 de DA.</t>
-  </si>
-  <si>
-    <t>2</t>
   </si>
   <si>
     <t>Comprar mesa ping pong</t>
@@ -151,7 +145,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -470,12 +464,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -492,7 +486,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -508,68 +502,68 @@
       <c r="C2" s="1">
         <v>45910</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
+      <c r="D2">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
+      <c r="F2">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
       <c r="C3" s="1">
         <v>45919</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
+      <c r="D3">
+        <v>1</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
-      <c r="F3" t="s">
-        <v>7</v>
+      <c r="F3">
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="1">
         <v>45981</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
+      <c r="D4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
-      <c r="F4" t="s">
-        <v>12</v>
+      <c r="F4">
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1">
         <v>46015</v>
       </c>
-      <c r="D5" t="s">
-        <v>12</v>
+      <c r="D5">
+        <v>2</v>
       </c>
       <c r="E5">
         <v>2</v>

--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88EAD2A4-4CFD-4318-A9A5-73F8DBA2B81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12124B3-654C-4272-A68A-83D42E3E3BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13776" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
+    <workbookView xWindow="38280" yWindow="7815" windowWidth="29040" windowHeight="15840" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -125,7 +125,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -133,6 +133,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,7 +471,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -491,11 +492,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -508,14 +509,14 @@
       <c r="C2" s="1">
         <v>45910</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
         <v>1</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -528,14 +529,14 @@
       <c r="C3" s="1">
         <v>45919</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="3">
         <v>2</v>
-      </c>
-      <c r="F3" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -548,14 +549,14 @@
       <c r="C4" s="1">
         <v>45981</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="3">
         <v>3</v>
-      </c>
-      <c r="F4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -568,10 +569,11 @@
       <c r="C5" s="1">
         <v>46015</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3"/>
+      <c r="F5" s="3">
         <v>2</v>
       </c>
     </row>

--- a/Test/Data/tareas.xlsx
+++ b/Test/Data/tareas.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rjpre\RiderProjects\265403_243045_174039\Test\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\flopa\RiderProjects\265403_243045_174039\Test\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B12124B3-654C-4272-A68A-83D42E3E3BED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD38C41-A52C-4A04-8C65-6E71E657CDF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="7815" windowWidth="29040" windowHeight="15840" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2B55C6BB-B0FB-40BC-AA64-7EBD9D63A054}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -152,7 +152,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -471,12 +471,12 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="19.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -507,7 +507,7 @@
         <v>6</v>
       </c>
       <c r="C2" s="1">
-        <v>45910</v>
+        <v>45179</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>7</v>
